--- a/data/lake-annecy/lake-annecy-temperature.xlsx
+++ b/data/lake-annecy/lake-annecy-temperature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-DegreeDay-Modeling/data/lake-annecy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/lake-annecy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F57455-7E9A-6941-A6AE-3F483F002997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1E1E18-ECE5-364D-A010-7F8576D73CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="500" windowWidth="20680" windowHeight="19220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12920" yWindow="500" windowWidth="20680" windowHeight="19220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <t>day</t>
   </si>
   <si>
-    <t>temp.c</t>
+    <t>temp_c</t>
   </si>
 </sst>
 </file>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9668"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32117,8 +32117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B7DFB4-C800-0F47-B3A0-0FB146114D58}">
   <dimension ref="A1:E5946"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
